--- a/xpaths.xlsx
+++ b/xpaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitFiles\Repo_nabee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A98197-0B41-4095-B08B-F1A6832E910E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1D12B0-401E-4622-8ABF-C80FF8872C13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0429DC9D-F6D2-4FB1-A609-BDA8A330C665}"/>
   </bookViews>
@@ -25,22 +25,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>as</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>xpaths</t>
+  </si>
+  <si>
+    <t>3 dots</t>
+  </si>
+  <si>
+    <t>//a[@class="s-topbar--menu-btn js-left-sidebar-toggle"]</t>
+  </si>
+  <si>
+    <t>//span[@class="-img _glyph"]</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>//a[@class="s-navigation--item js-gps-track js-products-menu"]</t>
+  </si>
+  <si>
+    <t>Search box</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Search"]</t>
+  </si>
+  <si>
+    <t>Login button</t>
+  </si>
+  <si>
+    <t>//a[text()="Log in"]</t>
+  </si>
+  <si>
+    <t>Text in box</t>
+  </si>
+  <si>
+    <t>//h2[@class="fs-subheading wmx3 mx-auto"]</t>
+  </si>
+  <si>
+    <t>//a[@class="s-topbar--item s-topbar--item__unset ml4 s-btn s-btn__primary ws-nowrap"]</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>Xpaths for Web-elements in Stack Overflow website</t>
+  </si>
+  <si>
+    <t>100+million</t>
+  </si>
+  <si>
+    <t>//div[text()="100+ million"]</t>
+  </si>
+  <si>
+    <t>Text[below100+million]</t>
+  </si>
+  <si>
+    <t>//div[text()="monthly visitors to Stack Overflow &amp; Stack Exchange"]</t>
+  </si>
+  <si>
+    <t>S.no</t>
+  </si>
+  <si>
+    <t>Search content</t>
+  </si>
+  <si>
+    <t>//a[@class="s-link s-link__underlined fc-black-700 h:fc-orange-600"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discover Teams </t>
+  </si>
+  <si>
+    <t>//a[@class="s-btn fs-body2 bar-md bg-blue-500 h:bg-blue-600 fc-white d:fc-black-900 p-ff-source-bold w100 wmx2 fs-body2 px32 w100 wmx2 fs-body2 px32"]</t>
+  </si>
+  <si>
+    <t>For Large Organisations</t>
+  </si>
+  <si>
+    <t>//a[@class="s-btn fs-body2 bar-md bg-blue-500 h:bg-blue-600 fc-white d:fc-black-900 p-ff-source-bold"]</t>
+  </si>
+  <si>
+    <t>Search image</t>
+  </si>
+  <si>
+    <t>//*[local-name()="svg" and @class="fc-orange-500 mb16 svg-spot spotSearch" ]</t>
+  </si>
+  <si>
+    <t>Lock Image</t>
+  </si>
+  <si>
+    <t>//*[local-name()="svg" and @class="fc-blue-500 mb16 svg-spot spotLock" ]</t>
+  </si>
+  <si>
+    <t>//a[@class="s-btn ml8 sm:ml0 sm:mt8 fs-body2 bar-md bg-blue-500 h:bg-blue-600 fc-white d:fc-black-900 p-ff-source-bold"]</t>
+  </si>
+  <si>
+    <t>For Small Teams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -59,12 +164,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,20 +538,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDA63E-BC21-4E23-8370-06DF8948A1FF}">
-  <dimension ref="H2"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="144.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xpaths.xlsx
+++ b/xpaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitFiles\Repo_nabee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1D12B0-401E-4622-8ABF-C80FF8872C13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC39A50E-EF52-4355-A062-769A114A0F36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0429DC9D-F6D2-4FB1-A609-BDA8A330C665}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Elements</t>
   </si>
@@ -127,6 +127,36 @@
   </si>
   <si>
     <t>For Small Teams</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>//a[@class="s-navigation--item js-gps-track" and text()="About"] or     (//a[@class="s-navigation--item js-gps-track"] ) [1]</t>
+  </si>
+  <si>
+    <t>Take a tour of teams</t>
+  </si>
+  <si>
+    <t>//a[@class="s-btn ws-nowrap fs-body2 px32 bar-md bg-blue-500 h:bg-blue-600 fc-white d:fc-black-900 p-ff-source-bold mt-auto"]</t>
+  </si>
+  <si>
+    <t>Create a free team</t>
+  </si>
+  <si>
+    <t>//a[@class="s-btn mt24 d-block as-stretch fs-body2 px32 bar-md p-ff-source-bold bg-orange-500 h:bg-orange-600 fc-white"]</t>
+  </si>
+  <si>
+    <t>Get Started</t>
+  </si>
+  <si>
+    <t>//a[@href="https://stackoverflowteams.com/teams/create/basic/"]</t>
+  </si>
+  <si>
+    <t>Request a demo</t>
+  </si>
+  <si>
+    <t>//a[@class="s-btn mt24 d-block as-stretch fs-body2 px32 bar-md p-ff-source-bold p-bg-purple d:p-bg-purple-alt h:p-bg-purple-tint fc-white d:fc-black"]</t>
   </si>
 </sst>
 </file>
@@ -538,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDA63E-BC21-4E23-8370-06DF8948A1FF}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +763,61 @@
         <v>31</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>

--- a/xpaths.xlsx
+++ b/xpaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitFiles\Repo_nabee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC39A50E-EF52-4355-A062-769A114A0F36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E2A92-D0D0-460D-ACD8-66F631FBE492}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0429DC9D-F6D2-4FB1-A609-BDA8A330C665}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>Elements</t>
   </si>
@@ -157,13 +157,136 @@
   </si>
   <si>
     <t>//a[@class="s-btn mt24 d-block as-stretch fs-body2 px32 bar-md p-ff-source-bold p-bg-purple d:p-bg-purple-alt h:p-bg-purple-tint fc-white d:fc-black"]</t>
+  </si>
+  <si>
+    <t>Orange HRM Image</t>
+  </si>
+  <si>
+    <t>//img[@src="/_resources/themes/orangehrm/dist/images/OrangeHRM_Logo.svg"]</t>
+  </si>
+  <si>
+    <t>//a[text()="Solutions"]</t>
+  </si>
+  <si>
+    <t>Solutions</t>
+  </si>
+  <si>
+    <t>//a[text()="Why OrangeHRM"]</t>
+  </si>
+  <si>
+    <t>Why OrangeHrm</t>
+  </si>
+  <si>
+    <t>(//button[text()="Book a Free Demo" ])[2]</t>
+  </si>
+  <si>
+    <t>Book a Free Demo button</t>
+  </si>
+  <si>
+    <t>(//button[text()="Contact Sales" ])[2]</t>
+  </si>
+  <si>
+    <t>Contact Sales button</t>
+  </si>
+  <si>
+    <t>Text(Peace of mind)</t>
+  </si>
+  <si>
+    <t>//h1[text()="Peace of mind is just a few clicks away!"]</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>//input[@type="email"]</t>
+  </si>
+  <si>
+    <t>//input[@type="submit"]</t>
+  </si>
+  <si>
+    <t>Sign up[Enter email and click]</t>
+  </si>
+  <si>
+    <t>Learn More</t>
+  </si>
+  <si>
+    <t>(//h6[text()="Learn More"])[2]</t>
+  </si>
+  <si>
+    <t>Performance Image</t>
+  </si>
+  <si>
+    <t>//img[@src="/assets/Uploads/performance-1.png.webp"]</t>
+  </si>
+  <si>
+    <t>Performance Text</t>
+  </si>
+  <si>
+    <t>//p[text()="Performance "]</t>
+  </si>
+  <si>
+    <t>(//a[@href="/en/company/executive-profiles/"])[3]</t>
+  </si>
+  <si>
+    <t>Executive Profile</t>
+  </si>
+  <si>
+    <t>Xpaths for web-elements in  Orange HRM HrSoftware</t>
+  </si>
+  <si>
+    <t>Xpaths for web-elements in  Orange HRM Login Page</t>
+  </si>
+  <si>
+    <t>//img[@src="/web/images/ohrm_branding.png?v=1689053487449"]</t>
+  </si>
+  <si>
+    <t>Username Tab</t>
+  </si>
+  <si>
+    <t>//input[@name="username"]</t>
+  </si>
+  <si>
+    <t>Password Tab</t>
+  </si>
+  <si>
+    <t>//input[@name="password"]</t>
+  </si>
+  <si>
+    <t>//button[@type="submit"]</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>//p[@class="oxd-text oxd-text--p orangehrm-login-forgot-header"]</t>
+  </si>
+  <si>
+    <t>After Login</t>
+  </si>
+  <si>
+    <t>Search Bar</t>
+  </si>
+  <si>
+    <t>//input[@placeholder="Search"]</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>//a[@class="oxd-main-menu-item active"]</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>//i[@class="oxd-icon bi-caret-down-fill oxd-userdropdown-icon"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +300,12 @@
       <name val="Bahnschrift Condensed"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,11 +364,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -253,6 +393,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,16 +723,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDA63E-BC21-4E23-8370-06DF8948A1FF}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="144.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -818,9 +973,254 @@
         <v>43</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/xpaths.xlsx
+++ b/xpaths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitFiles\Repo_nabee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E2A92-D0D0-460D-ACD8-66F631FBE492}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A37A2-CF1C-43E5-8AF4-573C233826B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0429DC9D-F6D2-4FB1-A609-BDA8A330C665}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0429DC9D-F6D2-4FB1-A609-BDA8A330C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>Elements</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>//i[@class="oxd-icon bi-caret-down-fill oxd-userdropdown-icon"]</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>//a[text()="Logout"]</t>
   </si>
 </sst>
 </file>
@@ -723,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EDA63E-BC21-4E23-8370-06DF8948A1FF}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,6 +1221,17 @@
         <v>84</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B45:C45"/>
